--- a/Tastk2.xlsx
+++ b/Tastk2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CA2614-C3D7-4406-A206-6B109BFE3ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B52E3A-B092-44FE-8ED3-DFC29078FDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>first budget</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>sumifs_brand</t>
+  </si>
+  <si>
+    <t>countifs</t>
   </si>
 </sst>
 </file>
@@ -554,15 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F5:O24"/>
+  <dimension ref="F5:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="6:15">
@@ -859,7 +863,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="6:15">
+    <row r="17" spans="6:16">
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
@@ -871,7 +875,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="6:15">
+    <row r="18" spans="6:16">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -883,7 +887,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="6:15">
+    <row r="19" spans="6:16">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -900,8 +904,11 @@
       <c r="O19" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="6:15">
+      <c r="P19" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -920,8 +927,12 @@
       <c r="O20" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="6:15">
+      <c r="P20">
+        <f>COUNTIFS(N10:N16,"kharid sakte",F10:F16,"lg")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -940,8 +951,12 @@
       <c r="O21" s="1">
         <v>451</v>
       </c>
-    </row>
-    <row r="22" spans="6:15">
+      <c r="P21">
+        <f>COUNTIFS(N10:N16,"nhi kharid sakte",F10:F16,"apple")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -960,8 +975,12 @@
       <c r="O22" s="1">
         <v>760</v>
       </c>
-    </row>
-    <row r="23" spans="6:15">
+      <c r="P22">
+        <f>COUNTIFS(N11:N17,"koshish krte",F11:F17,"samsung")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -973,7 +992,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="6:15">
+    <row r="24" spans="6:16">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
